--- a/src/test/resources/listDataModule.xlsx
+++ b/src/test/resources/listDataModule.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,7 +40,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +50,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -70,11 +84,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,6 +413,20 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/listDataModule.xlsx
+++ b/src/test/resources/listDataModule.xlsx
@@ -67,7 +67,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,31 +401,31 @@
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="79.21875" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/listDataModule.xlsx
+++ b/src/test/resources/listDataModule.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -80,18 +80,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -107,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,7 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,7 +273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,40 +448,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="79.21875" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="79.25" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="8"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -435,12 +495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -448,12 +508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
